--- a/management/src/main/resources/Speakers_template.xlsx
+++ b/management/src/main/resources/Speakers_template.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="3915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -83,9 +84,6 @@
     <t>${record.province}</t>
   </si>
   <si>
-    <t>${record.salesPerson}</t>
-  </si>
-  <si>
     <t>${record.date}</t>
   </si>
   <si>
@@ -114,6 +112,9 @@
   </si>
   <si>
     <t>${record.speakerName}</t>
+  </si>
+  <si>
+    <t>${record.salesPersonFullName}</t>
   </si>
 </sst>
 </file>
@@ -492,7 +493,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,30 +503,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -534,16 +535,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/management/src/main/resources/Speakers_template.xlsx
+++ b/management/src/main/resources/Speakers_template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="3915"/>
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -102,25 +101,25 @@
     <t>${record.hospital}</t>
   </si>
   <si>
-    <t>类别</t>
-  </si>
-  <si>
     <t>讲者姓名</t>
   </si>
   <si>
-    <t>${record.type}</t>
-  </si>
-  <si>
     <t>${record.speakerName}</t>
   </si>
   <si>
     <t>${record.salesPersonFullName}</t>
+  </si>
+  <si>
+    <t>${record.department}</t>
+  </si>
+  <si>
+    <t>科室</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -279,6 +278,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -314,6 +330,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,7 +526,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -535,16 +568,16 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
